--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -158,7 +158,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B18:C19"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -273,8 +273,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>43478</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -280,6 +280,22 @@
         <v>43478</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>43479</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>43480</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -296,6 +296,14 @@
         <v>43480</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>43481</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -304,6 +304,38 @@
         <v>43481</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>43482</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>43483</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>43484</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="n">
+        <v>43485</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -336,6 +336,22 @@
         <v>43485</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="n">
+        <v>43486</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>43487</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -352,6 +352,14 @@
         <v>43487</v>
       </c>
     </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>43488</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -360,6 +360,22 @@
         <v>43488</v>
       </c>
     </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="n">
+        <v>43489</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>43490</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -376,6 +376,38 @@
         <v>43490</v>
       </c>
     </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="n">
+        <v>43491</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>43494</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -408,6 +408,14 @@
         <v>43494</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="n">
+        <v>43495</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -416,6 +416,30 @@
         <v>43495</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="n">
+        <v>43497</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>43498</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -440,6 +440,14 @@
         <v>43498</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>43499</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E34" activeCellId="0" sqref="E34"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -448,6 +448,14 @@
         <v>43499</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>43500</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -456,6 +456,46 @@
         <v>43500</v>
       </c>
     </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>43502</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="n">
+        <v>43503</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="n">
+        <v>43504</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>43505</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -496,6 +496,14 @@
         <v>43505</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="n">
+        <v>43506</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -504,6 +504,22 @@
         <v>43506</v>
       </c>
     </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>43508</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43:A44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -520,6 +520,14 @@
         <v>43508</v>
       </c>
     </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>43509</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -528,6 +528,94 @@
         <v>43509</v>
       </c>
     </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="n">
+        <v>43510</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>43511</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="n">
+        <v>43512</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="n">
+        <v>43513</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>43514</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="n">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="n">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="n">
+        <v>43518</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="n">
+        <v>43519</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>43520</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -616,6 +616,14 @@
         <v>43520</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="n">
+        <v>43521</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -624,6 +624,22 @@
         <v>43521</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="n">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>43523</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -640,6 +640,54 @@
         <v>43523</v>
       </c>
     </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="n">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="n">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>43526</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="n">
+        <v>43527</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="n">
+        <v>43528</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>43529</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -688,6 +688,22 @@
         <v>43529</v>
       </c>
     </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="n">
+        <v>43530</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="n">
+        <v>43531</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -704,6 +704,38 @@
         <v>43531</v>
       </c>
     </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>43532</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="n">
+        <v>43533</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="n">
+        <v>43534</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>43535</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -736,6 +736,118 @@
         <v>43535</v>
       </c>
     </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="n">
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="n">
+        <v>43537</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>43538</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="n">
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="n">
+        <v>43540</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>43541</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="n">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="n">
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>43544</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="n">
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="n">
+        <v>43546</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="n">
+        <v>43548</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="n">
+        <v>43549</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Days" sheetId="1" state="visible" r:id="rId2"/>
@@ -140,12 +140,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -155,17 +155,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -848,10 +848,90 @@
         <v>43549</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>43550</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="n">
+        <v>43551</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="n">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>43553</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="n">
+        <v>43554</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="n">
+        <v>43555</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="n">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="n">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>43559</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C83" activeCellId="0" sqref="C83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -928,6 +928,142 @@
         <v>43559</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="n">
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>43562</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="n">
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="n">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>43565</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="n">
+        <v>43566</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>43568</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="n">
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="n">
+        <v>43570</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>43571</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="n">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="n">
+        <v>43575</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="n">
+        <v>43576</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1064,6 +1064,46 @@
         <v>43576</v>
       </c>
     </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="3" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="3" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="n">
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>43580</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="3" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="n">
+        <v>43581</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A116" activeCellId="0" sqref="A116:A117"/>
+      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,6 +1104,94 @@
         <v>43581</v>
       </c>
     </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="3" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="3" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="n">
+        <v>43583</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="3" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>43584</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="n">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="3" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="n">
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="3" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="n">
+        <v>43588</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="3" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="n">
+        <v>43589</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="n">
+        <v>43590</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="3" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="n">
+        <v>43591</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="n">
+        <v>43592</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A127" activeCellId="0" sqref="A127:A128"/>
+      <selection pane="topLeft" activeCell="D123" activeCellId="0" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1192,6 +1192,14 @@
         <v>43592</v>
       </c>
     </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="3" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>43593</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A105" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D123" activeCellId="0" sqref="D123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A130" activeCellId="0" sqref="A130:A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1200,6 +1200,22 @@
         <v>43593</v>
       </c>
     </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="3" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="n">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="n">
+        <v>43595</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A130" activeCellId="0" sqref="A130:A131"/>
+      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1216,6 +1216,14 @@
         <v>43595</v>
       </c>
     </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="3" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>43596</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131:A132"/>
+      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1224,6 +1224,14 @@
         <v>43596</v>
       </c>
     </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="n">
+        <v>43597</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Excel & CSV Sheets/Day Holder 2019.xlsx
+++ b/Excel & CSV Sheets/Day Holder 2019.xlsx
@@ -155,10 +155,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C133" activeCellId="0" sqref="C133"/>
+      <selection pane="topLeft" activeCell="D134" activeCellId="0" sqref="D134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1232,6 +1232,14 @@
         <v>43597</v>
       </c>
     </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="3" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="n">
+        <v>43598</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
